--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="5">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>27-May-2025</t>
+  </si>
+  <si>
+    <t>28-May-2025</t>
   </si>
 </sst>
 </file>
@@ -70,14 +73,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="true"/>
-    <col min="2" max="2" width="5.77734375" customWidth="true"/>
+    <col min="2" max="2" width="11.88671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -96,6 +99,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22" uniqueCount="12">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -28,6 +28,27 @@
   </si>
   <si>
     <t>28-May-2025</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>29-May-2025</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
   </si>
 </sst>
 </file>
@@ -73,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -108,8 +129,68 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="13">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>006</t>
+  </si>
+  <si>
+    <t>0012</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -192,6 +195,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="15">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>0012</t>
+  </si>
+  <si>
+    <t>PA8653</t>
+  </si>
+  <si>
+    <t>24-Jun-2025</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -203,6 +209,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29" uniqueCount="18">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>24-Jun-2025</t>
+  </si>
+  <si>
+    <t>PA0002</t>
+  </si>
+  <si>
+    <t>04-Jun-2025</t>
+  </si>
+  <si>
+    <t>PAPAPA</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -217,6 +226,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35" uniqueCount="24">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>PAPAPA</t>
+  </si>
+  <si>
+    <t>PA0202</t>
+  </si>
+  <si>
+    <t>PA1234</t>
+  </si>
+  <si>
+    <t>PA0022</t>
+  </si>
+  <si>
+    <t>PA0101</t>
+  </si>
+  <si>
+    <t>PA0333</t>
+  </si>
+  <si>
+    <t>PA0007</t>
   </si>
 </sst>
 </file>
@@ -112,14 +130,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="true"/>
-    <col min="2" max="2" width="11.88671875" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -240,6 +258,54 @@
       </c>
       <c r="B15" s="0"/>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45814</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="25">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>PA0007</t>
+  </si>
+  <si>
+    <t>PA0102</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,6 +309,14 @@
         <v>45814</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45814</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="27">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>PA0102</t>
+  </si>
+  <si>
+    <t>PA1111</t>
+  </si>
+  <si>
+    <t>PA0001</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -317,6 +323,70 @@
         <v>45814</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45810</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="51" uniqueCount="33">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>PA0001</t>
+  </si>
+  <si>
+    <t>PA5555</t>
+  </si>
+  <si>
+    <t>PA7333</t>
+  </si>
+  <si>
+    <t>PA1212</t>
+  </si>
+  <si>
+    <t>PA1112</t>
+  </si>
+  <si>
+    <t>PA1235</t>
+  </si>
+  <si>
+    <t>PA7777</t>
   </si>
 </sst>
 </file>
@@ -139,7 +157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,6 +405,62 @@
         <v>45810</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45816</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="33">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -157,7 +157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,6 +461,14 @@
         <v>45816</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45817</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/APP/Datos_paciente.xlsx
+++ b/APP/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="34">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>PA7777</t>
+  </si>
+  <si>
+    <t>PA4444</t>
   </si>
 </sst>
 </file>
@@ -157,14 +160,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="true"/>
-    <col min="2" max="2" width="15.5546875" customWidth="true"/>
+    <col min="1" max="1" width="12.36328125" customWidth="true"/>
+    <col min="2" max="2" width="15.54296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,6 +464,14 @@
         <v>45816</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45817</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>